--- a/teg_bot/data_base.xlsx
+++ b/teg_bot/data_base.xlsx
@@ -35,7 +35,7 @@
     <t>CAACAgIAAxkBAAPPYgOZ_W05N-_IgRy5mEM6GwxPR8UAApkAA8O54TAoNIfjwXSt3SME</t>
   </si>
   <si>
-    <t>smail</t>
+    <t>goodbye</t>
   </si>
 </sst>
 </file>
@@ -468,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/teg_bot/data_base.xlsx
+++ b/teg_bot/data_base.xlsx
@@ -12,14 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9045"/>
   </bookViews>
   <sheets>
-    <sheet name="stikers" sheetId="1" r:id="rId1"/>
+    <sheet name="stickers" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -32,17 +27,17 @@
     <t>file_id</t>
   </si>
   <si>
-    <t>CAACAgIAAxkBAAPPYgOZ_W05N-_IgRy5mEM6GwxPR8UAApkAA8O54TAoNIfjwXSt3SME</t>
+    <t>goodbye</t>
   </si>
   <si>
-    <t>goodbye</t>
+    <t>CAACAgIAAxkBAAPPYgOZ_W05N-_IgRy5mEM6GwxPR8UAApkAA8O54TAoNIfjwXSt3SME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -54,13 +49,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Segoe UI"/>
       <family val="2"/>
       <charset val="204"/>
@@ -86,15 +74,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -112,95 +94,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1209675</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="sticker-410" descr="blob:https://web.telegram.org/fa1ad690-b3ce-4b93-b87c-f2599a1fa5c2"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="190500"/>
-          <a:ext cx="1819275" cy="1981200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="AutoShape 2" descr="blob:https://web.telegram.org/8944fd4b-f36b-4736-ac7c-fc03b04df22e"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="609600" y="2343150"/>
-          <a:ext cx="304800" cy="304800"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,10 +359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,55 +378,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" s="2"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="2"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="2"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="2"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="2"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="2"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="2"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="2"/>
-    </row>
-    <row r="24" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B24" s="3">
-        <v>0.48680555555555555</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="17.25" x14ac:dyDescent="0.25">
-      <c r="B25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/teg_bot/data_base.xlsx
+++ b/teg_bot/data_base.xlsx
@@ -362,7 +362,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/teg_bot/data_base.xlsx
+++ b/teg_bot/data_base.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9045" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="stickers" sheetId="1" r:id="rId1"/>
+    <sheet name="users_page" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -361,7 +362,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -390,4 +391,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/teg_bot/data_base.xlsx
+++ b/teg_bot/data_base.xlsx
@@ -1,63 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Student\Documents\Kirsegisan_all\teg_bot\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9045" activeTab="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9045" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" r:id="rId1"/>
-    <sheet name="users_page" sheetId="2" r:id="rId2"/>
+    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="users_page" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>file_id</t>
-  </si>
-  <si>
-    <t>goodbye</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAPPYgOZ_W05N-_IgRy5mEM6GwxPR8UAApkAA8O54TAoNIfjwXSt3SME</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Segoe UI"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -76,24 +55,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -359,50 +397,109 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col width="51.42578125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file_id</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>goodbye</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAPPYgOZ_W05N-_IgRy5mEM6GwxPR8UAApkAA8O54TAoNIfjwXSt3SME</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A2:A7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1-8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>es</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/teg_bot/data_base.xlsx
+++ b/teg_bot/data_base.xlsx
@@ -1,42 +1,70 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9045" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9045"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="users_page" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="stickers" sheetId="1" r:id="rId1"/>
+    <sheet name="users_page" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>file_id</t>
+  </si>
+  <si>
+    <t>goodbye</t>
+  </si>
+  <si>
+    <t>kira</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>dfg</t>
+  </si>
+  <si>
+    <t>drgd</t>
+  </si>
+  <si>
+    <t>CAACAgIAAxkBAAICOWJ-tZCSM0i11kikVetMIx63KL-rAAKZAAPDueEwKDSH48F0rd0kBA</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Segoe UI"/>
+      <family val="2"/>
       <charset val="204"/>
-      <family val="2"/>
-      <color rgb="FF000000"/>
-      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -55,83 +83,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -178,7 +139,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -213,7 +174,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -390,113 +351,74 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="51.42578125" customWidth="1" min="2" max="2"/>
+    <col min="2" max="2" width="51.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>key</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>file_id</t>
-        </is>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>goodbye</t>
-        </is>
-      </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>CAACAgIAAxkBAAPPYgOZ_W05N-_IgRy5mEM6GwxPR8UAApkAA8O54TAoNIfjwXSt3SME</t>
-        </is>
+    <row r="2" spans="1:2" ht="51.75" customHeight="1">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A2:A7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1-8</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>es</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1974355978</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/teg_bot/data_base.xlsx
+++ b/teg_bot/data_base.xlsx
@@ -1,70 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9045"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9045" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="stickers" sheetId="1" r:id="rId1"/>
-    <sheet name="users_page" sheetId="2" r:id="rId2"/>
+    <sheet name="stickers" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="users_page" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <definedNames/>
+  <calcPr calcId="125725" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>file_id</t>
-  </si>
-  <si>
-    <t>goodbye</t>
-  </si>
-  <si>
-    <t>kira</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>dfg</t>
-  </si>
-  <si>
-    <t>drgd</t>
-  </si>
-  <si>
-    <t>CAACAgIAAxkBAAICOWJ-tZCSM0i11kikVetMIx63KL-rAAKZAAPDueEwKDSH48F0rd0kBA</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <name val="Calibri"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color theme="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Segoe UI"/>
+      <charset val="204"/>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -83,16 +55,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -351,74 +390,122 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A3" sqref="A3:XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="51.42578125" customWidth="1"/>
+    <col width="51.42578125" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>key</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>file_id</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="51.75" customHeight="1">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
+    <row r="2" ht="51.75" customHeight="1">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>goodbye</t>
+        </is>
+      </c>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAICOWJ-tZCSM0i11kikVetMIx63KL-rAAKZAAPDueEwKDSH48F0rd0kBA</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Луни</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAICXmJ_aPsQ58QAAaIkbQrnm3f5mqJcyQACbBgAAiVYYUtLdFaG8bGFySQE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Луни</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAICaGJ_aTcP0eoWo4ttjREKaNVgE4qYAAJsGAACJVhhS0t0VobxsYXJJAQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Тоже луни</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>CAACAgIAAxkBAAICbmJ_aUj_Ph3cF6baUo7PVjeq8hPtAALjFwACEpMpS9U1gj-kHvtBJAQ</t>
+        </is>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A2:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A2:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="2" spans="1:3">
-      <c r="A2">
+    <row r="2">
+      <c r="A2" t="n">
         <v>1974355978</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>kira</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>M</t>
+        </is>
       </c>
     </row>
   </sheetData>
